--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2752503.383628997</v>
+        <v>2747878.975713445</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>33.93991247395533</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>29.89427490705985</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>33.93991247395533</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="S2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>3.710907708664852</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -746,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>29.89427490705984</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="G3" t="n">
-        <v>29.89427490705985</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="H3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>29.89427490705984</v>
+      </c>
+      <c r="I4" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>29.89427490705984</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,49 +901,49 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="G5" t="n">
-        <v>15.16194852731947</v>
+        <v>33.89412103271894</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>11.85612676368803</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -974,73 +974,73 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="C6" t="n">
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="D6" t="n">
+      <c r="S6" t="n">
+        <v>38.48106384277808</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>33.89412103271894</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>38.48106384277808</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>18.96187038700693</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="K7" t="n">
         <v>14.93225064571201</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>18.96187038700693</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>97.01455845111029</v>
+        <v>13.74888350366828</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>175.3318063516152</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>175.3318063516152</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>83.26567494744205</v>
       </c>
       <c r="W8" t="n">
-        <v>175.3318063516152</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5121319720754</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>60.77218657767899</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>48.53902377671853</v>
       </c>
       <c r="S9" t="n">
-        <v>156.240555821128</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>105.8932312577842</v>
       </c>
       <c r="W9" t="n">
-        <v>169.2577192630651</v>
+        <v>175.3318063516152</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>175.3318063516152</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>175.3318063516152</v>
       </c>
     </row>
     <row r="10">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>175.3318063516152</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.489621137986</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.08089719068422</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>27.79734426348805</v>
       </c>
       <c r="R10" t="n">
         <v>145.9534932992552</v>
       </c>
       <c r="S10" t="n">
-        <v>5.240049758192467</v>
+        <v>156.0132238233746</v>
       </c>
       <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>175.3318063516152</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>175.3318063516152</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>42.54416032354752</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>172.3645574474254</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>192.8170508184369</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>5.623597659135302</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>79.0585636675447</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>99.9742741983392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>102.1557845699813</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2608,10 +2608,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>14.53306611597336</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>185.4048731212358</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695362</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>13.74238375877706</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>140.9144183062129</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>81.29683349370501</v>
       </c>
     </row>
     <row r="35">
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695464</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>28.23631843387909</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>32.57570591153918</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444133</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569551</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.421048022931</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>52.91369288258084</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856533</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012149</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184474389244</v>
+        <v>177.9413471369465</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238278</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206828</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569551</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="42">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.421048022931</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>55.5207962406078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.709655389037</v>
+        <v>54.4574018039584</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187862</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444108</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922687</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H46" t="n">
-        <v>24.83266606353363</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101.4769100231392</v>
+        <v>97.72851839822518</v>
       </c>
       <c r="C2" t="n">
-        <v>101.4769100231392</v>
+        <v>97.72851839822518</v>
       </c>
       <c r="D2" t="n">
-        <v>101.4769100231392</v>
+        <v>63.44577852554302</v>
       </c>
       <c r="E2" t="n">
-        <v>101.4769100231392</v>
+        <v>63.44577852554302</v>
       </c>
       <c r="F2" t="n">
-        <v>67.19417015045701</v>
+        <v>56.50027777633954</v>
       </c>
       <c r="G2" t="n">
-        <v>36.99793287059858</v>
+        <v>41.13641777246947</v>
       </c>
       <c r="H2" t="n">
-        <v>36.99793287059858</v>
+        <v>41.13641777246947</v>
       </c>
       <c r="I2" t="n">
-        <v>2.715192997916426</v>
+        <v>6.853677899787311</v>
       </c>
       <c r="J2" t="n">
         <v>2.715192997916426</v>
       </c>
       <c r="K2" t="n">
-        <v>34.95810984817397</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="L2" t="n">
-        <v>68.55862319738975</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="M2" t="n">
         <v>68.55862319738975</v>
       </c>
       <c r="N2" t="n">
+        <v>68.55862319738975</v>
+      </c>
+      <c r="O2" t="n">
         <v>102.1591365466055</v>
-      </c>
-      <c r="O2" t="n">
-        <v>135.7596498958213</v>
       </c>
       <c r="P2" t="n">
         <v>135.7596498958213</v>
@@ -4354,7 +4354,7 @@
         <v>135.7596498958213</v>
       </c>
       <c r="R2" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="S2" t="n">
         <v>101.4769100231392</v>
@@ -4366,16 +4366,16 @@
         <v>101.4769100231392</v>
       </c>
       <c r="V2" t="n">
-        <v>101.4769100231392</v>
+        <v>97.72851839822518</v>
       </c>
       <c r="W2" t="n">
-        <v>101.4769100231392</v>
+        <v>97.72851839822518</v>
       </c>
       <c r="X2" t="n">
-        <v>101.4769100231392</v>
+        <v>97.72851839822518</v>
       </c>
       <c r="Y2" t="n">
-        <v>101.4769100231392</v>
+        <v>97.72851839822518</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.19417015045701</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="C3" t="n">
-        <v>67.19417015045701</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="D3" t="n">
-        <v>67.19417015045701</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="E3" t="n">
-        <v>67.19417015045701</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="F3" t="n">
-        <v>67.19417015045701</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="G3" t="n">
-        <v>36.99793287059858</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="H3" t="n">
         <v>2.715192997916426</v>
@@ -4409,25 +4409,25 @@
         <v>2.715192997916426</v>
       </c>
       <c r="J3" t="n">
-        <v>6.606010638615182</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="K3" t="n">
-        <v>6.606010638615182</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="L3" t="n">
         <v>34.95810984817397</v>
       </c>
       <c r="M3" t="n">
-        <v>34.95810984817397</v>
+        <v>68.55862319738975</v>
       </c>
       <c r="N3" t="n">
-        <v>34.95810984817397</v>
+        <v>102.1591365466055</v>
       </c>
       <c r="O3" t="n">
-        <v>68.55862319738975</v>
+        <v>102.1591365466055</v>
       </c>
       <c r="P3" t="n">
-        <v>102.1591365466055</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="Q3" t="n">
         <v>135.7596498958213</v>
@@ -4451,10 +4451,10 @@
         <v>101.4769100231392</v>
       </c>
       <c r="X3" t="n">
-        <v>67.19417015045701</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="Y3" t="n">
-        <v>67.19417015045701</v>
+        <v>101.4769100231392</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>135.7596498958213</v>
+      </c>
+      <c r="C4" t="n">
+        <v>135.7596498958213</v>
+      </c>
+      <c r="D4" t="n">
+        <v>101.4769100231392</v>
+      </c>
+      <c r="E4" t="n">
+        <v>101.4769100231392</v>
+      </c>
+      <c r="F4" t="n">
+        <v>101.4769100231392</v>
+      </c>
+      <c r="G4" t="n">
+        <v>101.4769100231392</v>
+      </c>
+      <c r="H4" t="n">
+        <v>71.28067274328075</v>
+      </c>
+      <c r="I4" t="n">
         <v>36.99793287059858</v>
-      </c>
-      <c r="C4" t="n">
-        <v>36.99793287059858</v>
-      </c>
-      <c r="D4" t="n">
-        <v>36.99793287059858</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.715192997916426</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.715192997916426</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.715192997916426</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.715192997916426</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.715192997916426</v>
       </c>
       <c r="J4" t="n">
         <v>2.715192997916426</v>
@@ -4512,28 +4512,28 @@
         <v>135.7596498958213</v>
       </c>
       <c r="R4" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="S4" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="T4" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="U4" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="V4" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="W4" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="X4" t="n">
-        <v>71.28067274328075</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="Y4" t="n">
-        <v>71.28067274328075</v>
+        <v>135.7596498958213</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.9483697512254</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="C5" t="n">
-        <v>141.9483697512254</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="D5" t="n">
-        <v>103.0786082938738</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="E5" t="n">
-        <v>64.20884683652224</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="F5" t="n">
-        <v>57.26334608731877</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="G5" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="H5" t="n">
         <v>3.078485107422247</v>
@@ -4570,10 +4570,10 @@
         <v>3.078485107422247</v>
       </c>
       <c r="K5" t="n">
-        <v>3.078485107422247</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="L5" t="n">
-        <v>41.17473831177255</v>
+        <v>79.27099151612285</v>
       </c>
       <c r="M5" t="n">
         <v>79.27099151612285</v>
@@ -4582,37 +4582,37 @@
         <v>117.3672447204732</v>
       </c>
       <c r="O5" t="n">
-        <v>117.3672447204732</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="P5" t="n">
-        <v>148.7634570536217</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9242553711123</v>
       </c>
       <c r="R5" t="n">
-        <v>141.9483697512254</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="S5" t="n">
-        <v>141.9483697512254</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="T5" t="n">
-        <v>141.9483697512254</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="U5" t="n">
-        <v>141.9483697512254</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="V5" t="n">
-        <v>141.9483697512254</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="W5" t="n">
-        <v>141.9483697512254</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="X5" t="n">
-        <v>141.9483697512254</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="Y5" t="n">
-        <v>141.9483697512254</v>
+        <v>115.0544939137607</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>115.0544939137607</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="C6" t="n">
-        <v>76.18473245640914</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="D6" t="n">
         <v>41.94824656477385</v>
@@ -4640,25 +4640,25 @@
         <v>41.94824656477385</v>
       </c>
       <c r="H6" t="n">
-        <v>3.078485107422247</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="I6" t="n">
         <v>3.078485107422247</v>
       </c>
       <c r="J6" t="n">
-        <v>9.385105424419159</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="K6" t="n">
-        <v>47.48135862876946</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="L6" t="n">
-        <v>47.48135862876946</v>
+        <v>77.73174896241173</v>
       </c>
       <c r="M6" t="n">
-        <v>47.48135862876946</v>
+        <v>77.73174896241173</v>
       </c>
       <c r="N6" t="n">
-        <v>47.48135862876946</v>
+        <v>77.73174896241173</v>
       </c>
       <c r="O6" t="n">
         <v>77.73174896241173</v>
@@ -4670,28 +4670,28 @@
         <v>153.9242553711123</v>
       </c>
       <c r="R6" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="S6" t="n">
-        <v>153.9242553711123</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="T6" t="n">
-        <v>153.9242553711123</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="U6" t="n">
-        <v>153.9242553711123</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="V6" t="n">
-        <v>153.9242553711123</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="W6" t="n">
-        <v>153.9242553711123</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="X6" t="n">
-        <v>153.9242553711123</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="Y6" t="n">
-        <v>153.9242553711123</v>
+        <v>41.94824656477385</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.16156656773741</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="C7" t="n">
-        <v>18.16156656773741</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="D7" t="n">
-        <v>18.16156656773741</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="E7" t="n">
-        <v>18.16156656773741</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="F7" t="n">
-        <v>18.16156656773741</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="G7" t="n">
-        <v>18.16156656773741</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="H7" t="n">
-        <v>18.16156656773741</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="I7" t="n">
-        <v>18.16156656773741</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="J7" t="n">
         <v>18.16156656773741</v>
@@ -4746,31 +4746,31 @@
         <v>153.9242553711123</v>
       </c>
       <c r="Q7" t="n">
-        <v>134.7708509397922</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="R7" t="n">
-        <v>134.7708509397922</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="S7" t="n">
-        <v>134.7708509397922</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="T7" t="n">
-        <v>134.7708509397922</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="U7" t="n">
-        <v>134.7708509397922</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="V7" t="n">
-        <v>95.90108948244061</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="W7" t="n">
-        <v>57.03132802508901</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="X7" t="n">
-        <v>18.16156656773741</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.16156656773741</v>
+        <v>115.0544939137607</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118.9665487433027</v>
+        <v>211.9626410707504</v>
       </c>
       <c r="C8" t="n">
-        <v>118.9665487433027</v>
+        <v>211.9626410707504</v>
       </c>
       <c r="D8" t="n">
-        <v>118.9665487433027</v>
+        <v>211.9626410707504</v>
       </c>
       <c r="E8" t="n">
-        <v>118.9665487433027</v>
+        <v>211.9626410707504</v>
       </c>
       <c r="F8" t="n">
-        <v>112.0210479940992</v>
+        <v>205.0171403215469</v>
       </c>
       <c r="G8" t="n">
-        <v>14.02654450812922</v>
+        <v>191.1293792067304</v>
       </c>
       <c r="H8" t="n">
         <v>14.02654450812922</v>
@@ -4804,25 +4804,25 @@
         <v>14.02654450812922</v>
       </c>
       <c r="J8" t="n">
-        <v>14.02654450812922</v>
+        <v>132.7593507837336</v>
       </c>
       <c r="K8" t="n">
-        <v>14.02654450812922</v>
+        <v>306.3378390718327</v>
       </c>
       <c r="L8" t="n">
-        <v>23.37551243323927</v>
+        <v>479.9163273599318</v>
       </c>
       <c r="M8" t="n">
-        <v>196.9540007213383</v>
+        <v>521.9882929739872</v>
       </c>
       <c r="N8" t="n">
-        <v>244.3205431027479</v>
+        <v>569.3548353553967</v>
       </c>
       <c r="O8" t="n">
-        <v>417.899031390847</v>
+        <v>600.746456921704</v>
       </c>
       <c r="P8" t="n">
-        <v>545.0972527718856</v>
+        <v>701.3272254064609</v>
       </c>
       <c r="Q8" t="n">
         <v>701.3272254064609</v>
@@ -4840,16 +4840,16 @@
         <v>296.0693834419039</v>
       </c>
       <c r="V8" t="n">
-        <v>296.0693834419039</v>
+        <v>211.9626410707504</v>
       </c>
       <c r="W8" t="n">
-        <v>118.9665487433027</v>
+        <v>211.9626410707504</v>
       </c>
       <c r="X8" t="n">
-        <v>118.9665487433027</v>
+        <v>211.9626410707504</v>
       </c>
       <c r="Y8" t="n">
-        <v>118.9665487433027</v>
+        <v>211.9626410707504</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>372.5410889577811</v>
+        <v>14.02654450812922</v>
       </c>
       <c r="C9" t="n">
-        <v>372.5410889577811</v>
+        <v>14.02654450812922</v>
       </c>
       <c r="D9" t="n">
-        <v>372.5410889577811</v>
+        <v>14.02654450812922</v>
       </c>
       <c r="E9" t="n">
-        <v>213.3036339523256</v>
+        <v>14.02654450812922</v>
       </c>
       <c r="F9" t="n">
-        <v>213.3036339523256</v>
+        <v>14.02654450812922</v>
       </c>
       <c r="G9" t="n">
-        <v>75.41259155628983</v>
+        <v>14.02654450812922</v>
       </c>
       <c r="H9" t="n">
-        <v>75.41259155628983</v>
+        <v>14.02654450812922</v>
       </c>
       <c r="I9" t="n">
         <v>14.02654450812922</v>
       </c>
       <c r="J9" t="n">
-        <v>14.02654450812922</v>
+        <v>91.04961084172294</v>
       </c>
       <c r="K9" t="n">
-        <v>14.02654450812922</v>
+        <v>255.1375588898954</v>
       </c>
       <c r="L9" t="n">
-        <v>187.6050327962283</v>
+        <v>296.679892417819</v>
       </c>
       <c r="M9" t="n">
-        <v>255.4398447702958</v>
+        <v>364.5147043918865</v>
       </c>
       <c r="N9" t="n">
-        <v>429.0183330583949</v>
+        <v>448.5535469058723</v>
       </c>
       <c r="O9" t="n">
-        <v>602.5968213464939</v>
+        <v>503.212874286923</v>
       </c>
       <c r="P9" t="n">
-        <v>701.3272254064609</v>
+        <v>527.7487371183619</v>
       </c>
       <c r="Q9" t="n">
         <v>701.3272254064609</v>
       </c>
       <c r="R9" t="n">
-        <v>701.3272254064609</v>
+        <v>652.2979084602806</v>
       </c>
       <c r="S9" t="n">
-        <v>543.5084821527963</v>
+        <v>652.2979084602806</v>
       </c>
       <c r="T9" t="n">
-        <v>543.5084821527963</v>
+        <v>652.2979084602806</v>
       </c>
       <c r="U9" t="n">
-        <v>543.5084821527963</v>
+        <v>652.2979084602806</v>
       </c>
       <c r="V9" t="n">
-        <v>543.5084821527963</v>
+        <v>545.3350486039329</v>
       </c>
       <c r="W9" t="n">
-        <v>372.5410889577811</v>
+        <v>368.2322139053317</v>
       </c>
       <c r="X9" t="n">
-        <v>372.5410889577811</v>
+        <v>191.1293792067304</v>
       </c>
       <c r="Y9" t="n">
-        <v>372.5410889577811</v>
+        <v>14.02654450812922</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>194.40080544618</v>
+        <v>14.02654450812922</v>
       </c>
       <c r="C10" t="n">
-        <v>194.40080544618</v>
+        <v>14.02654450812922</v>
       </c>
       <c r="D10" t="n">
-        <v>194.40080544618</v>
+        <v>14.02654450812922</v>
       </c>
       <c r="E10" t="n">
-        <v>194.40080544618</v>
+        <v>14.02654450812922</v>
       </c>
       <c r="F10" t="n">
-        <v>194.40080544618</v>
+        <v>14.02654450812922</v>
       </c>
       <c r="G10" t="n">
-        <v>194.40080544618</v>
+        <v>14.02654450812922</v>
       </c>
       <c r="H10" t="n">
-        <v>194.40080544618</v>
+        <v>14.02654450812922</v>
       </c>
       <c r="I10" t="n">
-        <v>58.55270328659813</v>
+        <v>14.02654450812922</v>
       </c>
       <c r="J10" t="n">
         <v>14.02654450812922</v>
       </c>
       <c r="K10" t="n">
-        <v>72.1493105728843</v>
+        <v>72.14931057288425</v>
       </c>
       <c r="L10" t="n">
-        <v>202.0528747707607</v>
+        <v>202.0528747707608</v>
       </c>
       <c r="M10" t="n">
-        <v>349.4070924882358</v>
+        <v>349.4070924882359</v>
       </c>
       <c r="N10" t="n">
-        <v>498.6921726831134</v>
+        <v>498.6921726831135</v>
       </c>
       <c r="O10" t="n">
         <v>620.5648112189948</v>
@@ -4983,31 +4983,31 @@
         <v>701.3272254064609</v>
       </c>
       <c r="Q10" t="n">
-        <v>701.3272254064609</v>
+        <v>673.2490998877861</v>
       </c>
       <c r="R10" t="n">
-        <v>553.8994543971122</v>
+        <v>525.8213288784374</v>
       </c>
       <c r="S10" t="n">
-        <v>548.6064748433824</v>
+        <v>368.2322139053317</v>
       </c>
       <c r="T10" t="n">
-        <v>371.5036401447812</v>
+        <v>368.2322139053317</v>
       </c>
       <c r="U10" t="n">
-        <v>371.5036401447812</v>
+        <v>368.2322139053317</v>
       </c>
       <c r="V10" t="n">
-        <v>194.40080544618</v>
+        <v>368.2322139053317</v>
       </c>
       <c r="W10" t="n">
-        <v>194.40080544618</v>
+        <v>368.2322139053317</v>
       </c>
       <c r="X10" t="n">
-        <v>194.40080544618</v>
+        <v>368.2322139053317</v>
       </c>
       <c r="Y10" t="n">
-        <v>194.40080544618</v>
+        <v>191.1293792067304</v>
       </c>
     </row>
     <row r="11">
@@ -5038,10 +5038,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5050,13 +5050,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5071,10 +5071,10 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2252.19838578386</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1963.123159128057</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5515,10 +5515,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5548,16 +5548,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>615.644930552589</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>615.644930552589</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>465.5282911402533</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2588.787486630498</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>2438.670847218162</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>2337.686731866304</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>2337.686731866304</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E25" t="n">
-        <v>197.0043242297712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1031.260321675049</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>862.3241387471426</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>712.2074993348068</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>564.2944057524137</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>417.4044582545033</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>250.2083589693833</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>108.4965278115813</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X28" t="n">
-        <v>1433.701365648819</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>1212.908786505289</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6442,43 +6442,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6493,7 +6493,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466574</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>727.9786782557277</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C31" t="n">
-        <v>559.0424953278208</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W31" t="n">
-        <v>1358.409273127515</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X31" t="n">
-        <v>1130.419722229497</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y31" t="n">
-        <v>909.6271430859674</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6709,28 +6709,28 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6739,13 +6739,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098237</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819168</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>664.3027814695811</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6885,25 +6885,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783593</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640063</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6931,10 +6931,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6943,7 +6943,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6952,13 +6952,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>264.0500279773688</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,64 +7162,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7241,40 +7241,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797182</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797182</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>984.9192356072746</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>815.9830526793678</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>665.8664132670323</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>517.9533196846394</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>371.0633721867292</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578597</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.903366400058</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854708</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648822</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648822</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750804</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.9192356072746</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7435,28 +7435,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7478,37 +7478,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.6725264685172</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406104</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282749</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>240.706610545882</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797182</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797182</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216012</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238953</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583151</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377264</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340304</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442287</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987567</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168582</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362656</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7715,28 +7715,28 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756265</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876714</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8993044876714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>580.8993044876714</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>432.9862109052784</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>286.0962634073682</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G46" t="n">
-        <v>118.9001641222482</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396419</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359458</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614411</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317911</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>240.8900576307836</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L2" t="n">
-        <v>255.1065912093877</v>
+        <v>255.1065912093878</v>
       </c>
       <c r="M2" t="n">
-        <v>214.1012135983212</v>
+        <v>246.6698164773692</v>
       </c>
       <c r="N2" t="n">
-        <v>246.8450950403531</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O2" t="n">
         <v>248.4501999472249</v>
       </c>
       <c r="P2" t="n">
-        <v>217.9290633046618</v>
+        <v>251.8689757786171</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
         <v>129.8481964236088</v>
       </c>
       <c r="L3" t="n">
-        <v>156.4449627930514</v>
+        <v>160.3750816220401</v>
       </c>
       <c r="M3" t="n">
-        <v>129.5917403577182</v>
+        <v>163.5316528316735</v>
       </c>
       <c r="N3" t="n">
-        <v>118.4674613291454</v>
+        <v>152.4073738031007</v>
       </c>
       <c r="O3" t="n">
-        <v>164.7587326673596</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P3" t="n">
         <v>158.4618986107626</v>
       </c>
       <c r="Q3" t="n">
-        <v>167.6029932607663</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,25 +8218,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>202.1809638361346</v>
+        <v>240.6620276789126</v>
       </c>
       <c r="L5" t="n">
         <v>252.0299206180583</v>
       </c>
       <c r="M5" t="n">
-        <v>244.1059827132785</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N5" t="n">
         <v>242.7727963709656</v>
       </c>
       <c r="O5" t="n">
-        <v>206.3768508508745</v>
+        <v>243.3031242353586</v>
       </c>
       <c r="P5" t="n">
-        <v>242.7007091122137</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
         <v>164.1585617237782</v>
       </c>
       <c r="L6" t="n">
-        <v>122.1984598562864</v>
+        <v>159.1247332407705</v>
       </c>
       <c r="M6" t="n">
         <v>123.047446830095</v>
@@ -8309,7 +8309,7 @@
         <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>155.2295685195159</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P6" t="n">
         <v>158.0709840006057</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>49.16448762095823</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>22.43379383386397</v>
+        <v>197.7656001854792</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>165.8884044070596</v>
       </c>
       <c r="M8" t="n">
-        <v>132.8348713879229</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>143.6230976987797</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>136.2698984888722</v>
+        <v>109.3835824320221</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>54.50693749366698</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>48.28995823576872</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>3.590962737398286</v>
+        <v>169.3363648062594</v>
       </c>
       <c r="L9" t="n">
-        <v>133.3698532931066</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>90.44408664051846</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>120.1203645525742</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>74.94398103891731</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>33.85618372286037</v>
+        <v>209.1879900744756</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>-2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>-2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>102.8768876993837</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>24.58839950885135</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>212.9610556929595</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.7734165143926</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>63.36835372228754</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>46.45968844822997</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>43.26526345294991</v>
+        <v>50.29392045468958</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>66.73277020259218</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>40.30478226780136</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>203.6630665685112</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>145.6085800303781</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25125,10 +25125,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>137.2878198583898</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>117.1847295890522</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>186.0089474405556</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>112.6104454096878</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>108.2431272522977</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365908</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922686</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856533</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012149</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610366</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>171.2522535850787</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H46" t="n">
-        <v>115.4620467826901</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856542</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012157</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>753929.9322934037</v>
+        <v>753929.9322934035</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>753929.9322934033</v>
+        <v>753929.9322934035</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934037</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>753929.9322934037</v>
+        <v>753929.9322934035</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>753929.9322934034</v>
+        <v>753929.9322934035</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>753929.9322934037</v>
+        <v>753929.9322934035</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380338</v>
@@ -26325,34 +26325,34 @@
         <v>665895.9447442548</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442545</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.944744255</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442549</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8880.174459335547</v>
+        <v>8880.174459335502</v>
       </c>
       <c r="K3" t="n">
-        <v>1168.747045491163</v>
+        <v>1168.747045491171</v>
       </c>
       <c r="L3" t="n">
-        <v>34635.6912723041</v>
+        <v>34635.69127230405</v>
       </c>
       <c r="M3" t="n">
-        <v>248550.2087575368</v>
+        <v>248550.2087575369</v>
       </c>
       <c r="N3" t="n">
-        <v>4.595818660815132e-12</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>400260.8332988868</v>
       </c>
       <c r="C4" t="n">
-        <v>397057.3584744652</v>
+        <v>397057.3584744651</v>
       </c>
       <c r="D4" t="n">
-        <v>305665.7657712353</v>
+        <v>305665.7657712354</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26444,7 +26444,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426732056</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
@@ -26453,13 +26453,13 @@
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426732102</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426732097</v>
+        <v>8117.312426732011</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426732085</v>
+        <v>8117.31242673198</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>207355.7483991839</v>
+        <v>207355.7483991838</v>
       </c>
       <c r="C6" t="n">
-        <v>231169.8788582941</v>
+        <v>231169.8788582942</v>
       </c>
       <c r="D6" t="n">
-        <v>-24559.64390042858</v>
+        <v>-24559.64390042864</v>
       </c>
       <c r="E6" t="n">
-        <v>-529641.9136991083</v>
+        <v>-529989.2929534653</v>
       </c>
       <c r="F6" t="n">
-        <v>556656.1024936158</v>
+        <v>556308.723239259</v>
       </c>
       <c r="G6" t="n">
-        <v>556656.1024936158</v>
+        <v>556308.7232392589</v>
       </c>
       <c r="H6" t="n">
-        <v>556656.1024936157</v>
+        <v>556308.7232392591</v>
       </c>
       <c r="I6" t="n">
-        <v>556656.1024936157</v>
+        <v>556308.7232392592</v>
       </c>
       <c r="J6" t="n">
-        <v>547775.9280342802</v>
+        <v>547428.5487799236</v>
       </c>
       <c r="K6" t="n">
-        <v>555487.3554481247</v>
+        <v>555139.9761937674</v>
       </c>
       <c r="L6" t="n">
-        <v>522020.4112213115</v>
+        <v>521673.0319669548</v>
       </c>
       <c r="M6" t="n">
-        <v>308105.8937360789</v>
+        <v>307758.514481722</v>
       </c>
       <c r="N6" t="n">
-        <v>556656.1024936157</v>
+        <v>556308.7232392591</v>
       </c>
       <c r="O6" t="n">
-        <v>556656.1024936158</v>
+        <v>556308.7232392587</v>
       </c>
       <c r="P6" t="n">
-        <v>556656.1024936158</v>
+        <v>556308.723239259</v>
       </c>
     </row>
   </sheetData>
@@ -26712,22 +26712,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.072811053929556e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26934,16 +26934,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.072811053929556e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.449696538392302e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27017,7 +27017,7 @@
         <v>4.541151368822746</v>
       </c>
       <c r="D4" t="n">
-        <v>136.8507425088371</v>
+        <v>136.8507425088372</v>
       </c>
       <c r="E4" t="n">
         <v>997.3764817480331</v>
@@ -27038,13 +27038,13 @@
         <v>33.93991247395525</v>
       </c>
       <c r="K4" t="n">
-        <v>4.541151368822511</v>
+        <v>4.541151368822739</v>
       </c>
       <c r="L4" t="n">
-        <v>136.8507425088374</v>
+        <v>136.8507425088369</v>
       </c>
       <c r="M4" t="n">
-        <v>997.3764817480329</v>
+        <v>997.3764817480334</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27263,7 +27263,7 @@
         <v>4.541151368822746</v>
       </c>
       <c r="L4" t="n">
-        <v>136.8507425088371</v>
+        <v>136.8507425088372</v>
       </c>
       <c r="M4" t="n">
         <v>997.3764817480331</v>
@@ -27384,16 +27384,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>320.7431291467276</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>372.9361332677561</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>385.3159464967715</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
@@ -27402,7 +27402,7 @@
         <v>172.9692497154156</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644702</v>
+        <v>110.1176902905148</v>
       </c>
       <c r="S2" t="n">
-        <v>172.9719462259575</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
@@ -27438,7 +27438,7 @@
         <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>324.04135076147</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27466,16 +27466,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>127.7508055483411</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>111.1292999194285</v>
       </c>
       <c r="G3" t="n">
-        <v>107.3997417726358</v>
+        <v>103.3541042057403</v>
       </c>
       <c r="H3" t="n">
-        <v>77.81746130333066</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
         <v>87.69233988828964</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>171.8330727295221</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.892067707982</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>114.675560544257</v>
       </c>
       <c r="E4" t="n">
-        <v>112.4940501726138</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,13 +27554,13 @@
         <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
-        <v>161.8582038473137</v>
+        <v>131.9639289402539</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022108</v>
+        <v>120.2625580282554</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839145</v>
+        <v>56.48524998443612</v>
       </c>
       <c r="K4" t="n">
         <v>17.44799951871617</v>
@@ -27584,7 +27584,7 @@
         <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
-        <v>141.487508562741</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S4" t="n">
         <v>223.2933741908973</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>195.8153804819773</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>316.2019777779049</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>343.4493062294837</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>368.3949818989333</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>381.2678274946005</v>
       </c>
       <c r="H5" t="n">
-        <v>299.5518830515227</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
         <v>205.0481221176458</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>129.1691549215913</v>
+        <v>102.5442178425012</v>
       </c>
       <c r="S5" t="n">
         <v>205.8118405263978</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>128.0521198070892</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>134.2274351455376</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>113.5509445319198</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27712,10 +27712,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
-        <v>73.02686326066636</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268739</v>
+        <v>48.32201337990931</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>56.99978005760148</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>131.802908778555</v>
       </c>
       <c r="T6" t="n">
         <v>199.8611009721718</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>171.8788641707585</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>141.3509163391592</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27791,13 +27791,13 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6656840978772</v>
+        <v>142.7038137108703</v>
       </c>
       <c r="I7" t="n">
         <v>153.551289182031</v>
       </c>
       <c r="J7" t="n">
-        <v>88.89425643449839</v>
+        <v>50.4131925917203</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.91196249609953</v>
+        <v>42.39276904032837</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
@@ -27833,13 +27833,13 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V7" t="n">
-        <v>213.6565794810499</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>248.0419344938129</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>187.2285915462591</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27867,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>316.7343250525579</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.5613947208331</v>
+        <v>148.2295883692178</v>
       </c>
       <c r="I8" t="n">
         <v>150.5709327933331</v>
@@ -27909,13 +27909,13 @@
         <v>216.2938536289356</v>
       </c>
       <c r="U8" t="n">
-        <v>75.88953823530393</v>
+        <v>75.88953823530392</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>244.4865835226929</v>
       </c>
       <c r="W8" t="n">
-        <v>173.9091623657978</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27940,19 +27940,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.5121319720754</v>
       </c>
       <c r="H9" t="n">
         <v>104.2060135747427</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>60.77218657767899</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>48.53902377671853</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>156.240555821128</v>
       </c>
       <c r="T9" t="n">
         <v>196.8136629463422</v>
@@ -27991,16 +27991,16 @@
         <v>225.8866856868212</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>126.9073558916411</v>
       </c>
       <c r="W9" t="n">
-        <v>82.43726389785454</v>
+        <v>76.36317680930438</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>30.44117885186225</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>30.35088942568913</v>
       </c>
     </row>
     <row r="10">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>4.500173830322069</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28031,10 +28031,10 @@
         <v>156.0301607160526</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.489621137986</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>44.08089719068422</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.79734426348805</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>206.6296447981163</v>
+        <v>55.85647073293416</v>
       </c>
       <c r="T10" t="n">
-        <v>49.63566902559071</v>
+        <v>224.9674753772059</v>
       </c>
       <c r="U10" t="n">
         <v>286.2810108792431</v>
       </c>
       <c r="V10" t="n">
-        <v>76.80583697221277</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>43.25284700047956</v>
       </c>
     </row>
     <row r="11">
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.672078567559044e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.856977643785257e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30714,7 +30714,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.899014361901209e-12</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.036106066843284e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31864,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,31 +32311,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,19 +32560,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,7 +33037,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33046,7 +33046,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>493.6049778318539</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33496,31 +33496,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>677.7372574190229</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>400.8433522134843</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,13 +34453,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>608.2694430035901</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868579</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>32.56860287904802</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>33.93991247395533</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>32.56860287904802</v>
       </c>
       <c r="N2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>33.93991247395533</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>28.63848405005938</v>
+        <v>32.56860287904802</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="O3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>33.93991247395533</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="L5" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="M5" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>36.92627338448403</v>
       </c>
       <c r="P5" t="n">
-        <v>31.71334579105919</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>36.92627338448402</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,7 +35029,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>30.55594983196189</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>38.48106384277808</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>119.9321275511155</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>175.3318063516152</v>
       </c>
       <c r="L8" t="n">
-        <v>9.443401944555603</v>
+        <v>175.3318063516152</v>
       </c>
       <c r="M8" t="n">
-        <v>175.3318063516152</v>
+        <v>42.49693496369233</v>
       </c>
       <c r="N8" t="n">
         <v>47.84499230445414</v>
       </c>
       <c r="O8" t="n">
-        <v>175.3318063516152</v>
+        <v>31.70870865283555</v>
       </c>
       <c r="P8" t="n">
-        <v>128.483051900039</v>
+        <v>101.5967358431889</v>
       </c>
       <c r="Q8" t="n">
-        <v>157.8080531662377</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>77.80107710464011</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>165.7454020688611</v>
       </c>
       <c r="L9" t="n">
-        <v>175.3318063516152</v>
+        <v>41.96195305850861</v>
       </c>
       <c r="M9" t="n">
         <v>68.52001209501776</v>
       </c>
       <c r="N9" t="n">
+        <v>84.88771971109676</v>
+      </c>
+      <c r="O9" t="n">
+        <v>55.21144179904107</v>
+      </c>
+      <c r="P9" t="n">
+        <v>24.78369982973621</v>
+      </c>
+      <c r="Q9" t="n">
         <v>175.3318063516152</v>
-      </c>
-      <c r="O9" t="n">
-        <v>175.3318063516152</v>
-      </c>
-      <c r="P9" t="n">
-        <v>99.72768086865352</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,13 +35497,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35512,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,19 +36208,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,7 +36685,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>359.6305704175236</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>535.1410129745784</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>266.868944799154</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462666</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37557,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295354</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902381</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295354</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902925</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2747878.975713445</v>
+        <v>2749639.506016231</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>10.58695345037629</v>
       </c>
       <c r="G2" t="n">
         <v>15.21022140383137</v>
@@ -709,7 +709,7 @@
         <v>33.93991247395533</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>3.710907708664852</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -743,67 +743,67 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="E3" t="n">
-        <v>29.89427490705984</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="F3" t="n">
+        <v>29.89427490705985</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="G3" t="n">
-        <v>33.93991247395533</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>33.93991247395533</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -819,58 +819,58 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12.44627538834367</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>17.44799951871617</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>29.89427490705984</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="T4" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="J4" t="n">
-        <v>33.93991247395533</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>27.0180752910075</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="F5" t="n">
-        <v>38.48106384277808</v>
-      </c>
-      <c r="G5" t="n">
-        <v>33.89412103271894</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>33.89412103271894</v>
       </c>
       <c r="I6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>33.89412103271894</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>18.96187038700693</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>18.96187038700693</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>14.93225064571201</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>175.3318063516147</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>175.3318063516147</v>
       </c>
       <c r="G8" t="n">
-        <v>13.74888350366828</v>
+        <v>102.1704191411519</v>
       </c>
       <c r="H8" t="n">
-        <v>175.3318063516152</v>
+        <v>175.3318063516147</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>52.26183589334997</v>
+        <v>52.26183589335031</v>
       </c>
       <c r="S8" t="n">
-        <v>173.6116212999463</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>175.3318063516152</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>83.26567494744205</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>48.53902377671853</v>
+        <v>48.5390237767187</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>105.8932312577842</v>
+        <v>114.6918539595309</v>
       </c>
       <c r="W9" t="n">
-        <v>175.3318063516152</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>175.3318063516152</v>
+        <v>175.3318063516147</v>
       </c>
       <c r="Y9" t="n">
-        <v>175.3318063516152</v>
+        <v>175.3318063516147</v>
       </c>
     </row>
     <row r="10">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.3318063516152</v>
+        <v>44.91302503951741</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.79734426348805</v>
+        <v>27.79734426348825</v>
       </c>
       <c r="R10" t="n">
-        <v>145.9534932992552</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>156.0132238233746</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>175.3318063516152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>42.54416032354752</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>105.9893107373045</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.623597659135302</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>120.7871326503968</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>103.8784673763403</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>95.12712756824166</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>180.0179497934424</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>30.97191586387646</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>185.4048731212358</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2961,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>22.04658882052623</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>13.74238375877706</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.29683349370501</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>32.57570591153918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>30.97191586387613</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>177.9413471369465</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>54.4574018039584</v>
+        <v>88.4218355306478</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187862</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>97.72851839822518</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="C2" t="n">
-        <v>97.72851839822518</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="D2" t="n">
-        <v>63.44577852554302</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="E2" t="n">
-        <v>63.44577852554302</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="F2" t="n">
         <v>56.50027777633954</v>
@@ -4333,10 +4333,10 @@
         <v>2.715192997916426</v>
       </c>
       <c r="K2" t="n">
-        <v>2.715192997916426</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="L2" t="n">
-        <v>36.31570634713221</v>
+        <v>68.55862319738975</v>
       </c>
       <c r="M2" t="n">
         <v>68.55862319738975</v>
@@ -4357,25 +4357,25 @@
         <v>101.4769100231392</v>
       </c>
       <c r="S2" t="n">
-        <v>101.4769100231392</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="T2" t="n">
-        <v>101.4769100231392</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="U2" t="n">
-        <v>101.4769100231392</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="V2" t="n">
-        <v>97.72851839822518</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="W2" t="n">
-        <v>97.72851839822518</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="X2" t="n">
-        <v>97.72851839822518</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="Y2" t="n">
-        <v>97.72851839822518</v>
+        <v>67.19417015045701</v>
       </c>
     </row>
     <row r="3">
@@ -4391,13 +4391,13 @@
         <v>101.4769100231392</v>
       </c>
       <c r="D3" t="n">
-        <v>101.4769100231392</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="E3" t="n">
-        <v>71.28067274328075</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="F3" t="n">
-        <v>36.99793287059858</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="G3" t="n">
         <v>2.715192997916426</v>
@@ -4412,43 +4412,43 @@
         <v>2.715192997916426</v>
       </c>
       <c r="K3" t="n">
-        <v>2.715192997916426</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="L3" t="n">
-        <v>34.95810984817397</v>
+        <v>68.55862319738975</v>
       </c>
       <c r="M3" t="n">
         <v>68.55862319738975</v>
       </c>
       <c r="N3" t="n">
+        <v>68.55862319738975</v>
+      </c>
+      <c r="O3" t="n">
+        <v>68.55862319738975</v>
+      </c>
+      <c r="P3" t="n">
         <v>102.1591365466055</v>
-      </c>
-      <c r="O3" t="n">
-        <v>102.1591365466055</v>
-      </c>
-      <c r="P3" t="n">
-        <v>135.7596498958213</v>
       </c>
       <c r="Q3" t="n">
         <v>135.7596498958213</v>
       </c>
       <c r="R3" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="S3" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="T3" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="U3" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="V3" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="W3" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="X3" t="n">
         <v>101.4769100231392</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="C4" t="n">
-        <v>135.7596498958213</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="D4" t="n">
-        <v>101.4769100231392</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="E4" t="n">
-        <v>101.4769100231392</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="F4" t="n">
-        <v>101.4769100231392</v>
+        <v>20.33943493601357</v>
       </c>
       <c r="G4" t="n">
-        <v>101.4769100231392</v>
+        <v>20.33943493601357</v>
       </c>
       <c r="H4" t="n">
-        <v>71.28067274328075</v>
+        <v>20.33943493601357</v>
       </c>
       <c r="I4" t="n">
-        <v>36.99793287059858</v>
+        <v>20.33943493601357</v>
       </c>
       <c r="J4" t="n">
-        <v>2.715192997916426</v>
+        <v>20.33943493601357</v>
       </c>
       <c r="K4" t="n">
         <v>2.715192997916426</v>
@@ -4515,25 +4515,25 @@
         <v>135.7596498958213</v>
       </c>
       <c r="S4" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="T4" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="U4" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="V4" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="W4" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="X4" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="Y4" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="C5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="D5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="E5" t="n">
         <v>76.18473245640914</v>
       </c>
       <c r="F5" t="n">
-        <v>37.31497099905754</v>
+        <v>69.23923170720566</v>
       </c>
       <c r="G5" t="n">
-        <v>3.078485107422247</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="H5" t="n">
-        <v>3.078485107422247</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="I5" t="n">
         <v>3.078485107422247</v>
@@ -4573,19 +4573,19 @@
         <v>41.17473831177255</v>
       </c>
       <c r="L5" t="n">
-        <v>79.27099151612285</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="M5" t="n">
-        <v>79.27099151612285</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="N5" t="n">
-        <v>117.3672447204732</v>
+        <v>72.57095064492114</v>
       </c>
       <c r="O5" t="n">
-        <v>153.9242553711123</v>
+        <v>110.6672038492714</v>
       </c>
       <c r="P5" t="n">
-        <v>153.9242553711123</v>
+        <v>148.7634570536217</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9242553711123</v>
@@ -4603,16 +4603,16 @@
         <v>115.0544939137607</v>
       </c>
       <c r="V5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="W5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="X5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="Y5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.94824656477385</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="C6" t="n">
-        <v>41.94824656477385</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="D6" t="n">
-        <v>41.94824656477385</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="E6" t="n">
-        <v>41.94824656477385</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="F6" t="n">
-        <v>41.94824656477385</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="G6" t="n">
-        <v>41.94824656477385</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="H6" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="I6" t="n">
         <v>3.078485107422247</v>
@@ -4649,7 +4649,7 @@
         <v>3.078485107422247</v>
       </c>
       <c r="K6" t="n">
-        <v>41.17473831177255</v>
+        <v>39.63549575806142</v>
       </c>
       <c r="L6" t="n">
         <v>77.73174896241173</v>
@@ -4661,37 +4661,37 @@
         <v>77.73174896241173</v>
       </c>
       <c r="O6" t="n">
-        <v>77.73174896241173</v>
+        <v>115.828002166762</v>
       </c>
       <c r="P6" t="n">
-        <v>115.828002166762</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Q6" t="n">
         <v>153.9242553711123</v>
       </c>
       <c r="R6" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="S6" t="n">
-        <v>76.18473245640914</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="T6" t="n">
-        <v>76.18473245640914</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="U6" t="n">
-        <v>76.18473245640914</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="V6" t="n">
-        <v>76.18473245640914</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="W6" t="n">
-        <v>76.18473245640914</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="X6" t="n">
-        <v>41.94824656477385</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Y6" t="n">
-        <v>41.94824656477385</v>
+        <v>153.9242553711123</v>
       </c>
     </row>
     <row r="7">
@@ -4710,19 +4710,19 @@
         <v>76.18473245640914</v>
       </c>
       <c r="E7" t="n">
-        <v>76.18473245640914</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="F7" t="n">
-        <v>76.18473245640914</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="G7" t="n">
-        <v>76.18473245640914</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="H7" t="n">
         <v>57.03132802508901</v>
       </c>
       <c r="I7" t="n">
-        <v>57.03132802508901</v>
+        <v>18.16156656773741</v>
       </c>
       <c r="J7" t="n">
         <v>18.16156656773741</v>
@@ -4767,10 +4767,10 @@
         <v>115.0544939137607</v>
       </c>
       <c r="X7" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="Y7" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>211.9626410707504</v>
+        <v>471.4346574822517</v>
       </c>
       <c r="C8" t="n">
-        <v>211.9626410707504</v>
+        <v>471.4346574822517</v>
       </c>
       <c r="D8" t="n">
-        <v>211.9626410707504</v>
+        <v>471.4346574822517</v>
       </c>
       <c r="E8" t="n">
-        <v>211.9626410707504</v>
+        <v>471.4346574822517</v>
       </c>
       <c r="F8" t="n">
-        <v>205.0171403215469</v>
+        <v>294.331822783651</v>
       </c>
       <c r="G8" t="n">
-        <v>191.1293792067304</v>
+        <v>191.1293792067299</v>
       </c>
       <c r="H8" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812918</v>
       </c>
       <c r="I8" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812918</v>
       </c>
       <c r="J8" t="n">
-        <v>132.7593507837336</v>
+        <v>132.7593507837331</v>
       </c>
       <c r="K8" t="n">
-        <v>306.3378390718327</v>
+        <v>241.3396669969068</v>
       </c>
       <c r="L8" t="n">
-        <v>479.9163273599318</v>
+        <v>250.6886349220161</v>
       </c>
       <c r="M8" t="n">
-        <v>521.9882929739872</v>
+        <v>292.7606005360705</v>
       </c>
       <c r="N8" t="n">
-        <v>569.3548353553967</v>
+        <v>340.1271429174791</v>
       </c>
       <c r="O8" t="n">
-        <v>600.746456921704</v>
+        <v>371.5187644837855</v>
       </c>
       <c r="P8" t="n">
-        <v>701.3272254064609</v>
+        <v>545.0972527718841</v>
       </c>
       <c r="Q8" t="n">
-        <v>701.3272254064609</v>
+        <v>701.3272254064589</v>
       </c>
       <c r="R8" t="n">
-        <v>648.5374921808549</v>
+        <v>648.5374921808525</v>
       </c>
       <c r="S8" t="n">
-        <v>473.1722181405052</v>
+        <v>648.5374921808525</v>
       </c>
       <c r="T8" t="n">
-        <v>473.1722181405052</v>
+        <v>648.5374921808525</v>
       </c>
       <c r="U8" t="n">
-        <v>296.0693834419039</v>
+        <v>648.5374921808525</v>
       </c>
       <c r="V8" t="n">
-        <v>211.9626410707504</v>
+        <v>648.5374921808525</v>
       </c>
       <c r="W8" t="n">
-        <v>211.9626410707504</v>
+        <v>648.5374921808525</v>
       </c>
       <c r="X8" t="n">
-        <v>211.9626410707504</v>
+        <v>648.5374921808525</v>
       </c>
       <c r="Y8" t="n">
-        <v>211.9626410707504</v>
+        <v>648.5374921808525</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812918</v>
       </c>
       <c r="C9" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812918</v>
       </c>
       <c r="D9" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812918</v>
       </c>
       <c r="E9" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812918</v>
       </c>
       <c r="F9" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812918</v>
       </c>
       <c r="G9" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812918</v>
       </c>
       <c r="H9" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812918</v>
       </c>
       <c r="I9" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812918</v>
       </c>
       <c r="J9" t="n">
-        <v>91.04961084172294</v>
+        <v>91.04961084172263</v>
       </c>
       <c r="K9" t="n">
-        <v>255.1375588898954</v>
+        <v>255.137558889897</v>
       </c>
       <c r="L9" t="n">
-        <v>296.679892417819</v>
+        <v>296.67989241782</v>
       </c>
       <c r="M9" t="n">
-        <v>364.5147043918865</v>
+        <v>364.5147043918869</v>
       </c>
       <c r="N9" t="n">
-        <v>448.5535469058723</v>
+        <v>448.5535469058719</v>
       </c>
       <c r="O9" t="n">
-        <v>503.212874286923</v>
+        <v>503.2128742869219</v>
       </c>
       <c r="P9" t="n">
-        <v>527.7487371183619</v>
+        <v>527.7487371183603</v>
       </c>
       <c r="Q9" t="n">
-        <v>701.3272254064609</v>
+        <v>701.3272254064589</v>
       </c>
       <c r="R9" t="n">
-        <v>652.2979084602806</v>
+        <v>652.2979084602783</v>
       </c>
       <c r="S9" t="n">
-        <v>652.2979084602806</v>
+        <v>652.2979084602783</v>
       </c>
       <c r="T9" t="n">
-        <v>652.2979084602806</v>
+        <v>652.2979084602783</v>
       </c>
       <c r="U9" t="n">
-        <v>652.2979084602806</v>
+        <v>652.2979084602783</v>
       </c>
       <c r="V9" t="n">
-        <v>545.3350486039329</v>
+        <v>536.4475509253987</v>
       </c>
       <c r="W9" t="n">
-        <v>368.2322139053317</v>
+        <v>536.4475509253987</v>
       </c>
       <c r="X9" t="n">
-        <v>191.1293792067304</v>
+        <v>359.3447162267979</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.02654450812922</v>
+        <v>182.2418815281972</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.02654450812922</v>
+        <v>627.8824079286753</v>
       </c>
       <c r="C10" t="n">
-        <v>14.02654450812922</v>
+        <v>458.9462250007684</v>
       </c>
       <c r="D10" t="n">
-        <v>14.02654450812922</v>
+        <v>308.8295855884327</v>
       </c>
       <c r="E10" t="n">
-        <v>14.02654450812922</v>
+        <v>160.9164920060395</v>
       </c>
       <c r="F10" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812918</v>
       </c>
       <c r="G10" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812918</v>
       </c>
       <c r="H10" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812918</v>
       </c>
       <c r="I10" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812918</v>
       </c>
       <c r="J10" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812918</v>
       </c>
       <c r="K10" t="n">
-        <v>72.14931057288425</v>
+        <v>72.14931057288399</v>
       </c>
       <c r="L10" t="n">
-        <v>202.0528747707608</v>
+        <v>202.05287477076</v>
       </c>
       <c r="M10" t="n">
-        <v>349.4070924882359</v>
+        <v>349.4070924882348</v>
       </c>
       <c r="N10" t="n">
-        <v>498.6921726831135</v>
+        <v>498.6921726831119</v>
       </c>
       <c r="O10" t="n">
-        <v>620.5648112189948</v>
+        <v>620.564811218993</v>
       </c>
       <c r="P10" t="n">
-        <v>701.3272254064609</v>
+        <v>701.3272254064589</v>
       </c>
       <c r="Q10" t="n">
-        <v>673.2490998877861</v>
+        <v>673.2490998877838</v>
       </c>
       <c r="R10" t="n">
-        <v>525.8213288784374</v>
+        <v>673.2490998877838</v>
       </c>
       <c r="S10" t="n">
-        <v>368.2322139053317</v>
+        <v>673.2490998877838</v>
       </c>
       <c r="T10" t="n">
-        <v>368.2322139053317</v>
+        <v>673.2490998877838</v>
       </c>
       <c r="U10" t="n">
-        <v>368.2322139053317</v>
+        <v>673.2490998877838</v>
       </c>
       <c r="V10" t="n">
-        <v>368.2322139053317</v>
+        <v>673.2490998877838</v>
       </c>
       <c r="W10" t="n">
-        <v>368.2322139053317</v>
+        <v>673.2490998877838</v>
       </c>
       <c r="X10" t="n">
-        <v>368.2322139053317</v>
+        <v>673.2490998877838</v>
       </c>
       <c r="Y10" t="n">
-        <v>191.1293792067304</v>
+        <v>673.2490998877838</v>
       </c>
     </row>
     <row r="11">
@@ -5038,16 +5038,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5071,19 +5071,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5477693179085</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>593.6115863900017</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>593.6115863900017</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>445.6984928076085</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5266,31 +5266,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5494,43 +5494,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5548,16 +5548,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5749,10 +5749,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,55 +6123,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>580.8993044876688</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>580.8993044876688</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>580.8993044876688</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6183,16 +6183,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,10 +6317,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1688.385853854706</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>719.5738700011939</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C31" t="n">
-        <v>550.637687073287</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>424.993875127789</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2183.181349771631</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1894.106123115829</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1639.421634909942</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1350.004464872981</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1122.014913974964</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y31" t="n">
-        <v>901.2223348314336</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6718,25 +6718,25 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6794,7 +6794,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>719.5738700011939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>901.2223348314336</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,34 +7162,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7265,16 +7265,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.678320081396</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2232.8234857363</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2013.222020759241</v>
       </c>
       <c r="U40" t="n">
-        <v>1797.722346028744</v>
+        <v>1724.146794103439</v>
       </c>
       <c r="V40" t="n">
-        <v>1797.722346028744</v>
+        <v>1469.462305897552</v>
       </c>
       <c r="W40" t="n">
-        <v>1508.305175991783</v>
+        <v>1180.045135860591</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.315625093766</v>
+        <v>952.055584962574</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>731.2630058190439</v>
       </c>
     </row>
     <row r="41">
@@ -7393,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7505,7 +7505,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.6905094135296</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856228</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D43" t="n">
         <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.131553387299</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.338974243769</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,37 +7660,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>208.3214547517356</v>
+        <v>242.2613672256909</v>
       </c>
       <c r="L2" t="n">
-        <v>255.1065912093878</v>
+        <v>253.7352816144805</v>
       </c>
       <c r="M2" t="n">
-        <v>246.6698164773692</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N2" t="n">
         <v>212.9051825663978</v>
@@ -8060,16 +8060,16 @@
         <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236088</v>
+        <v>163.7881088975641</v>
       </c>
       <c r="L3" t="n">
         <v>160.3750816220401</v>
       </c>
       <c r="M3" t="n">
-        <v>163.5316528316735</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N3" t="n">
-        <v>152.4073738031007</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O3" t="n">
         <v>130.8188201934042</v>
@@ -8078,7 +8078,7 @@
         <v>158.4618986107626</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.663080786811</v>
+        <v>167.6029932607663</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,22 +8221,22 @@
         <v>240.6620276789126</v>
       </c>
       <c r="L5" t="n">
-        <v>252.0299206180583</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M5" t="n">
         <v>205.6249188705004</v>
       </c>
       <c r="N5" t="n">
-        <v>242.7727963709656</v>
+        <v>236.0050783192468</v>
       </c>
       <c r="O5" t="n">
-        <v>243.3031242353586</v>
+        <v>244.8579146936526</v>
       </c>
       <c r="P5" t="n">
-        <v>210.9873633211545</v>
+        <v>249.4684271639326</v>
       </c>
       <c r="Q5" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8297,10 +8297,10 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
-        <v>164.1585617237782</v>
+        <v>162.6037712654842</v>
       </c>
       <c r="L6" t="n">
-        <v>159.1247332407705</v>
+        <v>160.6795236990646</v>
       </c>
       <c r="M6" t="n">
         <v>123.047446830095</v>
@@ -8309,13 +8309,13 @@
         <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>124.673618687554</v>
+        <v>163.1546825303321</v>
       </c>
       <c r="P6" t="n">
         <v>158.0709840006057</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.8471891366353</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,10 +8455,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>197.7656001854792</v>
+        <v>132.1108809178785</v>
       </c>
       <c r="L8" t="n">
-        <v>165.8884044070596</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8470,10 +8470,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>109.3835824320221</v>
+        <v>183.1186529404487</v>
       </c>
       <c r="Q8" t="n">
-        <v>54.50693749366698</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>169.3363648062594</v>
+        <v>169.3363648062618</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>209.1879900744756</v>
+        <v>209.1879900744754</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>102.8768876993837</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>180.5336875992866</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>212.9610556929595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>46.45968844823102</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>63.36835372228754</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>50.29392045468958</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>72.1196935303856</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>117.6435571543359</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>40.30478226780136</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>123.374459202405</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>203.6630665685112</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.0089474405556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>35.40333084624553</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>108.2431272522977</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>171.2522535850787</v>
+        <v>137.2878198583894</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>792114.6061343242</v>
+        <v>792114.6061343243</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>753929.9322934034</v>
+        <v>753929.9322934037</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>753929.9322934034</v>
+        <v>753929.9322934035</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>753929.9322934034</v>
+        <v>753929.9322934035</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>753929.9322934037</v>
+        <v>753929.9322934035</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>753929.9322934034</v>
+        <v>753929.9322934035</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.460138034</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="H2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.944744255</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442545</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="O2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442552</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>12401.51063995663</v>
       </c>
       <c r="D3" t="n">
-        <v>343539.402600367</v>
+        <v>343539.4026003657</v>
       </c>
       <c r="E3" t="n">
-        <v>1086298.016192724</v>
+        <v>1086298.016192726</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8880.174459335502</v>
+        <v>8880.174459335547</v>
       </c>
       <c r="K3" t="n">
         <v>1168.747045491171</v>
       </c>
       <c r="L3" t="n">
-        <v>34635.69127230405</v>
+        <v>34635.69127230397</v>
       </c>
       <c r="M3" t="n">
-        <v>248550.2087575369</v>
+        <v>248550.208757537</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>397057.3584744651</v>
       </c>
       <c r="D4" t="n">
-        <v>305665.7657712354</v>
+        <v>305665.7657712357</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731936</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.31242673194</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731939</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426732011</v>
+        <v>8117.31242673194</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.31242673198</v>
+        <v>8117.312426731975</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>36730.71216531784</v>
       </c>
       <c r="D5" t="n">
-        <v>52713.93566685964</v>
+        <v>52713.93566685959</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>207355.7483991838</v>
+        <v>207355.7483991836</v>
       </c>
       <c r="C6" t="n">
-        <v>231169.8788582942</v>
+        <v>231169.878858294</v>
       </c>
       <c r="D6" t="n">
-        <v>-24559.64390042864</v>
+        <v>-24559.64390042707</v>
       </c>
       <c r="E6" t="n">
-        <v>-529989.2929534653</v>
+        <v>-529676.6516245453</v>
       </c>
       <c r="F6" t="n">
-        <v>556308.723239259</v>
+        <v>556621.3645681805</v>
       </c>
       <c r="G6" t="n">
-        <v>556308.7232392589</v>
+        <v>556621.3645681805</v>
       </c>
       <c r="H6" t="n">
-        <v>556308.7232392591</v>
+        <v>556621.3645681804</v>
       </c>
       <c r="I6" t="n">
-        <v>556308.7232392592</v>
+        <v>556621.3645681804</v>
       </c>
       <c r="J6" t="n">
-        <v>547428.5487799236</v>
+        <v>547741.1901088448</v>
       </c>
       <c r="K6" t="n">
-        <v>555139.9761937674</v>
+        <v>555452.6175226892</v>
       </c>
       <c r="L6" t="n">
-        <v>521673.0319669548</v>
+        <v>521985.6732958762</v>
       </c>
       <c r="M6" t="n">
-        <v>307758.514481722</v>
+        <v>308071.1558106435</v>
       </c>
       <c r="N6" t="n">
-        <v>556308.7232392591</v>
+        <v>556621.3645681803</v>
       </c>
       <c r="O6" t="n">
-        <v>556308.7232392587</v>
+        <v>556621.3645681802</v>
       </c>
       <c r="P6" t="n">
-        <v>556308.723239259</v>
+        <v>556621.3645681804</v>
       </c>
     </row>
   </sheetData>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26743,7 +26743,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>386.5211853523599</v>
+        <v>386.5211853523585</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>38.48106384277808</v>
       </c>
       <c r="D4" t="n">
-        <v>175.3318063516152</v>
+        <v>175.3318063516147</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>351.4999246332345</v>
+        <v>351.4999246332332</v>
       </c>
       <c r="E3" t="n">
-        <v>981.4543149893138</v>
+        <v>981.4543149893157</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>4.541151368822746</v>
       </c>
       <c r="D4" t="n">
-        <v>136.8507425088372</v>
+        <v>136.8507425088366</v>
       </c>
       <c r="E4" t="n">
-        <v>997.3764817480331</v>
+        <v>997.3764817480337</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>4.541151368822739</v>
       </c>
       <c r="L4" t="n">
-        <v>136.8507425088369</v>
+        <v>136.8507425088366</v>
       </c>
       <c r="M4" t="n">
-        <v>997.3764817480334</v>
+        <v>997.3764817480337</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>4.541151368822746</v>
       </c>
       <c r="L4" t="n">
-        <v>136.8507425088372</v>
+        <v>136.8507425088366</v>
       </c>
       <c r="M4" t="n">
-        <v>997.3764817480331</v>
+        <v>997.3764817480337</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>320.7431291467276</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>396.2890922913351</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,7 +27429,7 @@
         <v>110.1176902905148</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>172.9719462259575</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
@@ -27438,7 +27438,7 @@
         <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>324.04135076147</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27463,16 +27463,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>113.5051530906834</v>
       </c>
       <c r="E3" t="n">
-        <v>127.7508055483411</v>
+        <v>123.7051679814456</v>
       </c>
       <c r="F3" t="n">
-        <v>111.1292999194285</v>
+        <v>115.174937486324</v>
       </c>
       <c r="G3" t="n">
-        <v>103.3541042057403</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
         <v>111.757373777286</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>63.14454955308224</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>171.8330727295221</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27539,31 +27539,31 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>133.3069086246725</v>
       </c>
       <c r="D4" t="n">
-        <v>114.675560544257</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>132.9747726345876</v>
       </c>
       <c r="G4" t="n">
         <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
-        <v>131.9639289402539</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>120.2625580282554</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>56.48524998443612</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>175.4274210366964</v>
       </c>
       <c r="S4" t="n">
-        <v>223.2933741908973</v>
+        <v>189.3534617169419</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>193.8283607270673</v>
       </c>
       <c r="U4" t="n">
         <v>286.3167657450791</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>343.4493062294837</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>368.3949818989333</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>381.2678274946005</v>
+        <v>388.1438732363119</v>
       </c>
       <c r="H5" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>166.5670582748677</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>289.2711946273568</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>128.0521198070892</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>108.9640017218607</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>106.5881485506058</v>
       </c>
       <c r="G6" t="n">
         <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5079271034444</v>
+        <v>77.6138060707255</v>
       </c>
       <c r="I6" t="n">
-        <v>48.32201337990931</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.99978005760148</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
-        <v>131.802908778555</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
         <v>199.8611009721718</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>171.8788641707585</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>141.3509163391592</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>127.4720922595622</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,13 +27791,13 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
-        <v>142.7038137108703</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I7" t="n">
-        <v>153.551289182031</v>
+        <v>115.0702253392529</v>
       </c>
       <c r="J7" t="n">
-        <v>50.4131925917203</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>187.2285915462591</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>207.4020353118659</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>231.5442393900967</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>311.5784643625165</v>
       </c>
       <c r="H8" t="n">
-        <v>148.2295883692178</v>
+        <v>148.2295883692184</v>
       </c>
       <c r="I8" t="n">
-        <v>150.5709327933331</v>
+        <v>150.5709327933333</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>173.6116212999464</v>
       </c>
       <c r="T8" t="n">
         <v>216.2938536289356</v>
       </c>
       <c r="U8" t="n">
-        <v>75.88953823530392</v>
+        <v>251.2213445869191</v>
       </c>
       <c r="V8" t="n">
-        <v>244.4865835226929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27952,7 +27952,7 @@
         <v>104.2060135747427</v>
       </c>
       <c r="I9" t="n">
-        <v>60.77218657767899</v>
+        <v>60.77218657767909</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27991,16 +27991,16 @@
         <v>225.8866856868212</v>
       </c>
       <c r="V9" t="n">
-        <v>126.9073558916411</v>
+        <v>118.1087331898944</v>
       </c>
       <c r="W9" t="n">
-        <v>76.36317680930438</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>30.44117885186225</v>
+        <v>30.44117885186276</v>
       </c>
       <c r="Y9" t="n">
-        <v>30.35088942568913</v>
+        <v>30.35088942568964</v>
       </c>
     </row>
     <row r="10">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.500173830322069</v>
+        <v>134.9189551424199</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.2939739422496</v>
@@ -28031,10 +28031,10 @@
         <v>156.0301607160526</v>
       </c>
       <c r="I10" t="n">
-        <v>134.489621137986</v>
+        <v>134.4896211379861</v>
       </c>
       <c r="J10" t="n">
-        <v>44.08089719068422</v>
+        <v>44.08089719068438</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>145.9534932992553</v>
       </c>
       <c r="S10" t="n">
-        <v>55.85647073293416</v>
+        <v>211.8696945563088</v>
       </c>
       <c r="T10" t="n">
         <v>224.9674753772059</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.25284700047956</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30714,7 +30714,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.553854011466772</v>
+        <v>1.553854011466767</v>
       </c>
       <c r="H8" t="n">
-        <v>15.91340739493408</v>
+        <v>15.91340739493403</v>
       </c>
       <c r="I8" t="n">
-        <v>59.90495677707279</v>
+        <v>59.90495677707258</v>
       </c>
       <c r="J8" t="n">
-        <v>131.8814169057281</v>
+        <v>131.8814169057276</v>
       </c>
       <c r="K8" t="n">
-        <v>197.6560572111166</v>
+        <v>197.6560572111159</v>
       </c>
       <c r="L8" t="n">
-        <v>245.2098169145428</v>
+        <v>245.209816914542</v>
       </c>
       <c r="M8" t="n">
-        <v>272.8431681909651</v>
+        <v>272.8431681909641</v>
       </c>
       <c r="N8" t="n">
-        <v>277.2580559010451</v>
+        <v>277.2580559010441</v>
       </c>
       <c r="O8" t="n">
-        <v>261.8069200745223</v>
+        <v>261.8069200745214</v>
       </c>
       <c r="P8" t="n">
-        <v>223.4461491664363</v>
+        <v>223.4461491664356</v>
       </c>
       <c r="Q8" t="n">
-        <v>167.7987523807825</v>
+        <v>167.7987523807819</v>
       </c>
       <c r="R8" t="n">
-        <v>97.60728204779971</v>
+        <v>97.60728204779937</v>
       </c>
       <c r="S8" t="n">
-        <v>35.40844828629911</v>
+        <v>35.40844828629898</v>
       </c>
       <c r="T8" t="n">
-        <v>6.801995935195798</v>
+        <v>6.801995935195776</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1243083209173417</v>
+        <v>0.1243083209173413</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8313851911352647</v>
+        <v>0.8313851911352618</v>
       </c>
       <c r="H9" t="n">
-        <v>8.029430661753741</v>
+        <v>8.029430661753715</v>
       </c>
       <c r="I9" t="n">
-        <v>28.62444627373609</v>
+        <v>28.62444627373599</v>
       </c>
       <c r="J9" t="n">
-        <v>78.54766843089797</v>
+        <v>78.5476684308977</v>
       </c>
       <c r="K9" t="n">
-        <v>134.2504762369607</v>
+        <v>134.2504762369603</v>
       </c>
       <c r="L9" t="n">
-        <v>180.5163328383828</v>
+        <v>180.5163328383822</v>
       </c>
       <c r="M9" t="n">
-        <v>210.6540460170361</v>
+        <v>210.6540460170354</v>
       </c>
       <c r="N9" t="n">
-        <v>216.2294317944301</v>
+        <v>216.2294317944293</v>
       </c>
       <c r="O9" t="n">
-        <v>197.8076862434855</v>
+        <v>197.8076862434849</v>
       </c>
       <c r="P9" t="n">
-        <v>158.7581072440665</v>
+        <v>158.7581072440659</v>
       </c>
       <c r="Q9" t="n">
-        <v>106.1255903631612</v>
+        <v>106.1255903631608</v>
       </c>
       <c r="R9" t="n">
-        <v>51.6188103759246</v>
+        <v>51.61881037592443</v>
       </c>
       <c r="S9" t="n">
-        <v>15.44261528270984</v>
+        <v>15.44261528270979</v>
       </c>
       <c r="T9" t="n">
-        <v>3.35106574847942</v>
+        <v>3.351065748479409</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05469639415363585</v>
+        <v>0.05469639415363567</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6970054162091734</v>
+        <v>0.6970054162091711</v>
       </c>
       <c r="H10" t="n">
-        <v>6.197011791387019</v>
+        <v>6.197011791386998</v>
       </c>
       <c r="I10" t="n">
-        <v>20.96085378927224</v>
+        <v>20.96085378927217</v>
       </c>
       <c r="J10" t="n">
-        <v>49.27828292598856</v>
+        <v>49.27828292598839</v>
       </c>
       <c r="K10" t="n">
-        <v>80.97935653775667</v>
+        <v>80.9793565377564</v>
       </c>
       <c r="L10" t="n">
-        <v>103.6256961516802</v>
+        <v>103.6256961516799</v>
       </c>
       <c r="M10" t="n">
-        <v>109.2587671972252</v>
+        <v>109.2587671972249</v>
       </c>
       <c r="N10" t="n">
-        <v>106.6608379186275</v>
+        <v>106.6608379186271</v>
       </c>
       <c r="O10" t="n">
-        <v>98.51854737472938</v>
+        <v>98.51854737472905</v>
       </c>
       <c r="P10" t="n">
-        <v>84.29963688406218</v>
+        <v>84.2996368840619</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.36469898820634</v>
+        <v>58.36469898820614</v>
       </c>
       <c r="R10" t="n">
-        <v>31.33989807791428</v>
+        <v>31.33989807791417</v>
       </c>
       <c r="S10" t="n">
-        <v>12.1469034806635</v>
+        <v>12.14690348066346</v>
       </c>
       <c r="T10" t="n">
-        <v>2.978114051075559</v>
+        <v>2.978114051075548</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03801847724777314</v>
+        <v>0.03801847724777301</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>357.9244589488886</v>
+        <v>639.4703354763091</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>379.8551982710414</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>379.8551982710414</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>246.2467565146293</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201445</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>436.0678650906011</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>436.0678650906011</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>567.7870775946146</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>608.2694430035901</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="L2" t="n">
-        <v>33.93991247395533</v>
+        <v>32.56860287904802</v>
       </c>
       <c r="M2" t="n">
-        <v>32.56860287904802</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="L3" t="n">
         <v>32.56860287904802</v>
       </c>
       <c r="M3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>33.93991247395533</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,22 +34941,22 @@
         <v>38.48106384277808</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>31.71334579105918</v>
+      </c>
+      <c r="O5" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="O5" t="n">
-        <v>36.92627338448403</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,11 +35017,11 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>36.92627338448402</v>
+      </c>
+      <c r="L6" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="L6" t="n">
-        <v>36.92627338448402</v>
-      </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="P6" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="Q6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>119.9321275511155</v>
+        <v>119.9321275511151</v>
       </c>
       <c r="K8" t="n">
-        <v>175.3318063516152</v>
+        <v>109.6770870840138</v>
       </c>
       <c r="L8" t="n">
-        <v>175.3318063516152</v>
+        <v>9.443401944554779</v>
       </c>
       <c r="M8" t="n">
-        <v>42.49693496369233</v>
+        <v>42.49693496369136</v>
       </c>
       <c r="N8" t="n">
-        <v>47.84499230445414</v>
+        <v>47.84499230445317</v>
       </c>
       <c r="O8" t="n">
-        <v>31.70870865283555</v>
+        <v>31.7087086528347</v>
       </c>
       <c r="P8" t="n">
-        <v>101.5967358431889</v>
+        <v>175.3318063516147</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>157.8080531662371</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>77.80107710464011</v>
+        <v>77.80107710463984</v>
       </c>
       <c r="K9" t="n">
-        <v>165.7454020688611</v>
+        <v>165.745402068863</v>
       </c>
       <c r="L9" t="n">
-        <v>41.96195305850861</v>
+        <v>41.96195305850802</v>
       </c>
       <c r="M9" t="n">
-        <v>68.52001209501776</v>
+        <v>68.52001209501705</v>
       </c>
       <c r="N9" t="n">
-        <v>84.88771971109676</v>
+        <v>84.88771971109603</v>
       </c>
       <c r="O9" t="n">
-        <v>55.21144179904107</v>
+        <v>55.21144179904041</v>
       </c>
       <c r="P9" t="n">
-        <v>24.78369982973621</v>
+        <v>24.7836998297357</v>
       </c>
       <c r="Q9" t="n">
-        <v>175.3318063516152</v>
+        <v>175.3318063516147</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>58.70986471187382</v>
+        <v>58.70986471187355</v>
       </c>
       <c r="L10" t="n">
-        <v>131.2157214119964</v>
+        <v>131.215721411996</v>
       </c>
       <c r="M10" t="n">
-        <v>148.8426441590658</v>
+        <v>148.8426441590655</v>
       </c>
       <c r="N10" t="n">
-        <v>150.7930102978561</v>
+        <v>150.7930102978557</v>
       </c>
       <c r="O10" t="n">
-        <v>123.1036752887691</v>
+        <v>123.1036752887687</v>
       </c>
       <c r="P10" t="n">
-        <v>81.57819614895567</v>
+        <v>81.57819614895539</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>226.5827468655553</v>
+        <v>508.1286233929758</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>242.0137592966825</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>242.0137592966825</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>256.1654199113569</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,19 +37390,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>425.1908331501702</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>256.1654199113569</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>469.7150632237159</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
